--- a/Assignment 2/List of EU countries.xlsx
+++ b/Assignment 2/List of EU countries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kooltje\Documents\GitHub\FoDA\Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9555D380-5C80-4BDC-A393-DDADBAC7FC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74957528-4504-4953-912E-24E6FDE34AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30825" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{E5D5BBF0-D24D-4FD9-B112-9BD93733323C}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{E5D5BBF0-D24D-4FD9-B112-9BD93733323C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>CYPRUS</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t xml:space="preserve">Code </t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -548,23 +551,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14901C5B-2F3D-4C43-A227-EA5FE03154E2}">
-  <dimension ref="B2:C28"/>
+  <dimension ref="B2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -572,7 +578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -580,7 +586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -588,7 +594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -596,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -604,7 +610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -612,7 +618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -620,7 +626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -628,7 +634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -636,7 +642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -644,7 +650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -652,7 +658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -660,7 +666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -668,7 +674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>26</v>
       </c>
